--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLibrary\pytemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1429D287-793E-4244-B814-A707EBE4694F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C41676B-7655-486B-A671-ECE5384203C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4490" yWindow="1500" windowWidth="13900" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,17 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>local_acl_wildcard_mask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>本地ACL的反掩码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>local_ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -79,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,16 +99,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,15 +135,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="1" xr:uid="{88EA554C-9EAB-499A-848B-1522E3701A64}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -407,59 +447,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLibrary\pytemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempFolder\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C41676B-7655-486B-A671-ECE5384203C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7076F5BB-9DCF-43BF-A337-A2943872CEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4490" yWindow="1500" windowWidth="13900" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,49 +26,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>local_acl_wildcard_mask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地ACL的反掩码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.0.0.255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>192.168.0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.0.0.128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
+    <t>ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DS1</t>
+    <t>ds_name</t>
+  </si>
+  <si>
+    <t>地市名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>十堰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三峡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>地市简写</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>SX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>output1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>output2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地市</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>netmask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DS2</t>
+    <t>子网掩码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,28 +136,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -135,37 +159,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="1" xr:uid="{88EA554C-9EAB-499A-848B-1522E3701A64}"/>
@@ -447,62 +460,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA032B91-DC62-47D4-AAB5-E07765F2CBB8}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.58203125" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
